--- a/InputData/plcy-ctrl-ctr/BEPEfCT/Boolean Exempt Process Emissions from Carbon Tax.xlsx
+++ b/InputData/plcy-ctrl-ctr/BEPEfCT/Boolean Exempt Process Emissions from Carbon Tax.xlsx
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
